--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f502_bao_cao_du_an_tu_ngay_den_ngay.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f502_bao_cao_du_an_tu_ngay_den_ngay.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -46,13 +46,22 @@
   </si>
   <si>
     <t>&lt;tu_ngay&gt;</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>&lt;den_ngay&gt;</t>
+  </si>
+  <si>
+    <t>BÁO CÁO DỰ ÁN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +81,14 @@
       <color indexed="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -108,6 +125,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -404,62 +424,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H347"/>
+  <dimension ref="A1:H350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1"/>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:8" ht="21">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="27.95" customHeight="1"/>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="27.95" customHeight="1"/>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="27.95" customHeight="1"/>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="27.95" customHeight="1"/>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="27.95" customHeight="1"/>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="27.95" customHeight="1"/>
@@ -774,9 +808,9 @@
     <row r="318" s="3" customFormat="1" ht="27.95" customHeight="1"/>
     <row r="319" s="3" customFormat="1" ht="27.95" customHeight="1"/>
     <row r="320" s="3" customFormat="1" ht="27.95" customHeight="1"/>
-    <row r="321" s="3" customFormat="1" ht="24.95" customHeight="1"/>
-    <row r="322" s="3" customFormat="1" ht="24.95" customHeight="1"/>
-    <row r="323" s="3" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="321" s="3" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="322" s="3" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="323" s="3" customFormat="1" ht="27.95" customHeight="1"/>
     <row r="324" s="3" customFormat="1" ht="24.95" customHeight="1"/>
     <row r="325" s="3" customFormat="1" ht="24.95" customHeight="1"/>
     <row r="326" s="3" customFormat="1" ht="24.95" customHeight="1"/>
@@ -801,8 +835,15 @@
     <row r="345" s="3" customFormat="1" ht="24.95" customHeight="1"/>
     <row r="346" s="3" customFormat="1" ht="24.95" customHeight="1"/>
     <row r="347" s="3" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="348" s="3" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="349" s="3" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="350" s="3" customFormat="1" ht="24.95" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f502_bao_cao_du_an_tu_ngay_den_ngay.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f502_bao_cao_du_an_tu_ngay_den_ngay.xlsx
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -117,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -129,6 +132,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +431,7 @@
   <dimension ref="A1:H350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,17 +462,17 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
